--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Epcam-Epcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Epcam-Epcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +513,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,16 +528,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.038811</v>
+        <v>0.02015566666666667</v>
       </c>
       <c r="H2">
-        <v>0.116433</v>
+        <v>0.060467</v>
       </c>
       <c r="I2">
-        <v>0.5181501408488312</v>
+        <v>0.5089300744032589</v>
       </c>
       <c r="J2">
-        <v>0.5181501408488312</v>
+        <v>0.5089300744032589</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,28 +546,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.038811</v>
+        <v>0.02015566666666667</v>
       </c>
       <c r="N2">
-        <v>0.116433</v>
+        <v>0.060467</v>
       </c>
       <c r="O2">
-        <v>0.5181501408488312</v>
+        <v>0.5089300744032589</v>
       </c>
       <c r="P2">
-        <v>0.5181501408488312</v>
+        <v>0.5089300744032589</v>
       </c>
       <c r="Q2">
-        <v>0.001506293721</v>
+        <v>0.0004062508987777777</v>
       </c>
       <c r="R2">
-        <v>0.013556643489</v>
+        <v>0.003656258089</v>
       </c>
       <c r="S2">
-        <v>0.2684795684616635</v>
+        <v>0.2590098206321066</v>
       </c>
       <c r="T2">
-        <v>0.2684795684616635</v>
+        <v>0.2590098206321066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +575,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,16 +590,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.038811</v>
+        <v>0.02015566666666667</v>
       </c>
       <c r="H3">
-        <v>0.116433</v>
+        <v>0.060467</v>
       </c>
       <c r="I3">
-        <v>0.5181501408488312</v>
+        <v>0.5089300744032589</v>
       </c>
       <c r="J3">
-        <v>0.5181501408488312</v>
+        <v>0.5089300744032589</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -611,42 +608,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02015566666666667</v>
+        <v>0.01944833333333333</v>
       </c>
       <c r="N3">
-        <v>0.06046699999999999</v>
+        <v>0.058345</v>
       </c>
       <c r="O3">
-        <v>0.26909024560654</v>
+        <v>0.4910699255967411</v>
       </c>
       <c r="P3">
-        <v>0.26909024560654</v>
+        <v>0.4910699255967411</v>
       </c>
       <c r="Q3">
-        <v>0.0007822615789999999</v>
+        <v>0.0003919941238888889</v>
       </c>
       <c r="R3">
-        <v>0.007040354210999999</v>
+        <v>0.003527947115</v>
       </c>
       <c r="S3">
-        <v>0.1394291486620753</v>
+        <v>0.2499202537711523</v>
       </c>
       <c r="T3">
-        <v>0.1394291486620753</v>
+        <v>0.2499202537711522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -655,16 +652,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.038811</v>
+        <v>0.01944833333333333</v>
       </c>
       <c r="H4">
-        <v>0.116433</v>
+        <v>0.058345</v>
       </c>
       <c r="I4">
-        <v>0.5181501408488312</v>
+        <v>0.4910699255967411</v>
       </c>
       <c r="J4">
-        <v>0.5181501408488312</v>
+        <v>0.4910699255967411</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -673,28 +670,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01593633333333333</v>
+        <v>0.02015566666666667</v>
       </c>
       <c r="N4">
-        <v>0.047809</v>
+        <v>0.060467</v>
       </c>
       <c r="O4">
-        <v>0.2127596135446288</v>
+        <v>0.5089300744032589</v>
       </c>
       <c r="P4">
-        <v>0.2127596135446288</v>
+        <v>0.5089300744032589</v>
       </c>
       <c r="Q4">
-        <v>0.000618505033</v>
+        <v>0.0003919941238888889</v>
       </c>
       <c r="R4">
-        <v>0.005566545296999999</v>
+        <v>0.003527947115</v>
       </c>
       <c r="S4">
-        <v>0.1102414237250923</v>
+        <v>0.2499202537711523</v>
       </c>
       <c r="T4">
-        <v>0.1102414237250923</v>
+        <v>0.2499202537711522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,13 +699,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -717,16 +714,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02015566666666667</v>
+        <v>0.01944833333333333</v>
       </c>
       <c r="H5">
-        <v>0.06046699999999999</v>
+        <v>0.058345</v>
       </c>
       <c r="I5">
-        <v>0.26909024560654</v>
+        <v>0.4910699255967411</v>
       </c>
       <c r="J5">
-        <v>0.26909024560654</v>
+        <v>0.4910699255967411</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -735,338 +732,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.038811</v>
+        <v>0.01944833333333333</v>
       </c>
       <c r="N5">
-        <v>0.116433</v>
+        <v>0.058345</v>
       </c>
       <c r="O5">
-        <v>0.5181501408488312</v>
+        <v>0.4910699255967411</v>
       </c>
       <c r="P5">
-        <v>0.5181501408488312</v>
+        <v>0.4910699255967411</v>
       </c>
       <c r="Q5">
-        <v>0.0007822615789999999</v>
+        <v>0.0003782376694444445</v>
       </c>
       <c r="R5">
-        <v>0.007040354210999999</v>
+        <v>0.003404139025</v>
       </c>
       <c r="S5">
-        <v>0.1394291486620753</v>
+        <v>0.2411496718255889</v>
       </c>
       <c r="T5">
-        <v>0.1394291486620753</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.02015566666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.06046699999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.26909024560654</v>
-      </c>
-      <c r="J6">
-        <v>0.26909024560654</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.02015566666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.06046699999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.26909024560654</v>
-      </c>
-      <c r="P6">
-        <v>0.26909024560654</v>
-      </c>
-      <c r="Q6">
-        <v>0.0004062508987777777</v>
-      </c>
-      <c r="R6">
-        <v>0.003656258088999999</v>
-      </c>
-      <c r="S6">
-        <v>0.07240956028058801</v>
-      </c>
-      <c r="T6">
-        <v>0.07240956028058801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.02015566666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.06046699999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.26909024560654</v>
-      </c>
-      <c r="J7">
-        <v>0.26909024560654</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01593633333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.047809</v>
-      </c>
-      <c r="O7">
-        <v>0.2127596135446288</v>
-      </c>
-      <c r="P7">
-        <v>0.2127596135446288</v>
-      </c>
-      <c r="Q7">
-        <v>0.0003212074225555555</v>
-      </c>
-      <c r="R7">
-        <v>0.002890866803</v>
-      </c>
-      <c r="S7">
-        <v>0.0572515366638767</v>
-      </c>
-      <c r="T7">
-        <v>0.0572515366638767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01593633333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.047809</v>
-      </c>
-      <c r="I8">
-        <v>0.2127596135446288</v>
-      </c>
-      <c r="J8">
-        <v>0.2127596135446288</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.038811</v>
-      </c>
-      <c r="N8">
-        <v>0.116433</v>
-      </c>
-      <c r="O8">
-        <v>0.5181501408488312</v>
-      </c>
-      <c r="P8">
-        <v>0.5181501408488312</v>
-      </c>
-      <c r="Q8">
-        <v>0.000618505033</v>
-      </c>
-      <c r="R8">
-        <v>0.005566545296999999</v>
-      </c>
-      <c r="S8">
-        <v>0.1102414237250923</v>
-      </c>
-      <c r="T8">
-        <v>0.1102414237250923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01593633333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.047809</v>
-      </c>
-      <c r="I9">
-        <v>0.2127596135446288</v>
-      </c>
-      <c r="J9">
-        <v>0.2127596135446288</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02015566666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.06046699999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.26909024560654</v>
-      </c>
-      <c r="P9">
-        <v>0.26909024560654</v>
-      </c>
-      <c r="Q9">
-        <v>0.0003212074225555555</v>
-      </c>
-      <c r="R9">
-        <v>0.002890866803</v>
-      </c>
-      <c r="S9">
-        <v>0.0572515366638767</v>
-      </c>
-      <c r="T9">
-        <v>0.0572515366638767</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01593633333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.047809</v>
-      </c>
-      <c r="I10">
-        <v>0.2127596135446288</v>
-      </c>
-      <c r="J10">
-        <v>0.2127596135446288</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.01593633333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.047809</v>
-      </c>
-      <c r="O10">
-        <v>0.2127596135446288</v>
-      </c>
-      <c r="P10">
-        <v>0.2127596135446288</v>
-      </c>
-      <c r="Q10">
-        <v>0.0002539667201111111</v>
-      </c>
-      <c r="R10">
-        <v>0.002285700481</v>
-      </c>
-      <c r="S10">
-        <v>0.04526665315565981</v>
-      </c>
-      <c r="T10">
-        <v>0.04526665315565981</v>
+        <v>0.2411496718255888</v>
       </c>
     </row>
   </sheetData>
